--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92534.68806402913</v>
+        <v>87906.62186438242</v>
       </c>
     </row>
     <row r="7">
@@ -26326,34 +26326,34 @@
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
         <v>43002.96221257856</v>
       </c>
       <c r="I2" t="n">
+        <v>43002.96221257857</v>
+      </c>
+      <c r="J2" t="n">
         <v>43002.96221257855</v>
-      </c>
-      <c r="J2" t="n">
-        <v>43002.96221257857</v>
       </c>
       <c r="K2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="M2" t="n">
         <v>43002.96221257857</v>
       </c>
-      <c r="M2" t="n">
-        <v>43002.96221257855</v>
-      </c>
       <c r="N2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="E4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="F4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="G4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="H4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="I4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="J4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="K4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="L4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="M4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="N4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="O4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="P4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11572.96494557224</v>
+        <v>-12126.11889371073</v>
       </c>
       <c r="C6" t="n">
-        <v>-11572.96494557224</v>
+        <v>-12126.11889371073</v>
       </c>
       <c r="D6" t="n">
-        <v>-11572.96494557224</v>
+        <v>-12126.11889371073</v>
       </c>
       <c r="E6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="F6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628926</v>
       </c>
       <c r="G6" t="n">
-        <v>22054.63505442777</v>
+        <v>21501.48110628926</v>
       </c>
       <c r="H6" t="n">
-        <v>22054.63505442777</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="I6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="J6" t="n">
-        <v>22054.63505442777</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="K6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="L6" t="n">
-        <v>22054.63505442777</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="M6" t="n">
-        <v>22054.63505442775</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="N6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="O6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="P6" t="n">
-        <v>22054.63505442776</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.62186438242</v>
+        <v>87906.62186438245</v>
       </c>
     </row>
     <row r="7">
@@ -26329,10 +26331,10 @@
         <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="J2" t="n">
         <v>43002.96221257855</v>
@@ -26344,16 +26346,16 @@
         <v>43002.96221257855</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="N2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
     </row>
     <row r="3">
@@ -26531,16 +26533,16 @@
         <v>21501.48110628927</v>
       </c>
       <c r="F6" t="n">
-        <v>21501.48110628926</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="G6" t="n">
-        <v>21501.48110628926</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="H6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="I6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="J6" t="n">
         <v>21501.48110628927</v>
@@ -26552,16 +26554,16 @@
         <v>21501.48110628927</v>
       </c>
       <c r="M6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="N6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="O6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="P6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.62186438245</v>
+        <v>-38854.33200488258</v>
       </c>
     </row>
     <row r="7">
@@ -26319,10 +26319,10 @@
         <v>43002.96221257855</v>
       </c>
       <c r="D2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="F2" t="n">
         <v>43002.96221257855</v>
@@ -26331,19 +26331,19 @@
         <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="J2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="K2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="M2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="E6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="F6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
       <c r="G6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
       <c r="H6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="I6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="J6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="K6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="L6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="M6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
       <c r="N6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
       <c r="O6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
       <c r="P6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254509</v>
       </c>
     </row>
   </sheetData>
